--- a/tables/data_store_info.xlsx
+++ b/tables/data_store_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\CDM\docs\CDM-manual\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-science\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B4D785-1F8A-4A64-A2B7-C3B9C0FCA125}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1462142-82D1-47D5-AAB3-CE7D1631A4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="7605" windowWidth="21600" windowHeight="11505" xr2:uid="{EAD7D6E8-C2E5-46C8-B68E-8297FE0C231C}"/>
+    <workbookView xWindow="6180" yWindow="4860" windowWidth="28800" windowHeight="15540" xr2:uid="{EAD7D6E8-C2E5-46C8-B68E-8297FE0C231C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>Table</t>
   </si>
@@ -47,58 +47,118 @@
     <t>Type</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>X Co-Ords of site in UTM</t>
-  </si>
-  <si>
-    <t>Y Co-Ords of site in UTM</t>
-  </si>
-  <si>
-    <t>Site Name</t>
-  </si>
-  <si>
-    <t>Array of Data Values</t>
-  </si>
-  <si>
-    <t>Array of sampling depths</t>
-  </si>
-  <si>
-    <t>Array of Sampling dates in Matlab Julian Date format</t>
-  </si>
-  <si>
-    <t>Data Units</t>
-  </si>
-  <si>
     <t>Site Info</t>
   </si>
   <si>
     <t>Data Info</t>
   </si>
   <si>
-    <t>Agency</t>
-  </si>
-  <si>
-    <t>Classification code matching entry in CDM Catalogue</t>
+    <t>Agency Name</t>
+  </si>
+  <si>
+    <t>Agency Code</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Data File Name</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Station Status</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Time Zone</t>
+  </si>
+  <si>
+    <t>Vertical Datum</t>
+  </si>
+  <si>
+    <t>National Station ID</t>
+  </si>
+  <si>
+    <t>Site Description</t>
+  </si>
+  <si>
+    <t>Bad or Unavailable Data Value</t>
+  </si>
+  <si>
+    <t>Contact Email</t>
+  </si>
+  <si>
+    <t>Variable ID</t>
+  </si>
+  <si>
+    <t>Data Classification</t>
+  </si>
+  <si>
+    <t>Sampling Rate (min)</t>
+  </si>
+  <si>
+    <t>Name of Data Agency</t>
+  </si>
+  <si>
+    <t>Unique Agency Code</t>
+  </si>
+  <si>
+    <t>Project Code</t>
+  </si>
+  <si>
+    <t>Project Description</t>
+  </si>
+  <si>
+    <t>Location of Curated Datafile</t>
+  </si>
+  <si>
+    <t>Name of Curated Datafile</t>
+  </si>
+  <si>
+    <t>Active / Inactive</t>
+  </si>
+  <si>
+    <t>Location of Station (LAT)</t>
+  </si>
+  <si>
+    <t>Location of Station (LON)</t>
+  </si>
+  <si>
+    <t>Data Time Zone</t>
+  </si>
+  <si>
+    <t>Vertical Datum Description</t>
+  </si>
+  <si>
+    <t>Station ID</t>
+  </si>
+  <si>
+    <t>Site Information</t>
+  </si>
+  <si>
+    <t>QC Code</t>
+  </si>
+  <si>
+    <t>Agency Contact Details</t>
+  </si>
+  <si>
+    <t>Unique Variable ID</t>
+  </si>
+  <si>
+    <t>Mean Sampling frequency of the data</t>
   </si>
 </sst>
 </file>
@@ -450,20 +510,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AB189F-04A4-41EF-B780-FEB2F1073D4E}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,116 +537,256 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
